--- a/swapped_eye_channels.xlsx
+++ b/swapped_eye_channels.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abbiepopa/Documents/CARPP-BETTA_ERP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/cabil/Projects/FILES_TO_BE_ADDED/AbbieMaterials/Intern Folder/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>CABIL</t>
   </si>
@@ -419,7 +419,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,6 +468,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>933</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
       <c r="L3" t="s">
         <v>14</v>
       </c>
